--- a/pool-economics-V3.xlsx
+++ b/pool-economics-V3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Geteilte Ablagen\WunderDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slava\White-Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5678C372-DD28-4B99-B1F0-397168856A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE009E3-C88D-4EFE-A487-86628066A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA31F93B-8249-4C15-BBB3-057DCD10864F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BA31F93B-8249-4C15-BBB3-057DCD10864F}"/>
   </bookViews>
   <sheets>
     <sheet name="Business-Plan" sheetId="1" r:id="rId1"/>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26C8E80-041F-4FA3-8EB9-62C493468C75}">
   <dimension ref="A2:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94:K94"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,27 +2245,27 @@
       </c>
       <c r="D62" s="28"/>
       <c r="F62" s="28">
-        <f>F52</f>
+        <f t="shared" ref="F62:K62" si="9">F52</f>
         <v>10869.367044207622</v>
       </c>
       <c r="G62" s="28">
-        <f>G52</f>
+        <f t="shared" si="9"/>
         <v>77629.019429730848</v>
       </c>
       <c r="H62" s="28">
-        <f>H52</f>
+        <f t="shared" si="9"/>
         <v>692704.76172735181</v>
       </c>
       <c r="I62" s="28">
-        <f>I52</f>
+        <f t="shared" si="9"/>
         <v>3849016.7802266264</v>
       </c>
       <c r="J62" s="28">
-        <f>J52</f>
+        <f t="shared" si="9"/>
         <v>17222903.378760573</v>
       </c>
       <c r="K62" s="28">
-        <f>K52</f>
+        <f t="shared" si="9"/>
         <v>10869367.044207625</v>
       </c>
     </row>
@@ -2286,23 +2286,23 @@
         <v>22825.670792836008</v>
       </c>
       <c r="G63" s="28">
-        <f t="shared" ref="G63:K63" si="9">G38*($B$18 + $F$20)</f>
+        <f t="shared" ref="G63:K63" si="10">G38*($B$18 + $F$20)</f>
         <v>174518.5572617976</v>
       </c>
       <c r="H63" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1556841.1804759463</v>
       </c>
       <c r="I63" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7840487.4849346383</v>
       </c>
       <c r="J63" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32608101.132622872</v>
       </c>
       <c r="K63" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32608101.132622872</v>
       </c>
     </row>
@@ -2368,31 +2368,31 @@
         <v>62608.64809060983</v>
       </c>
       <c r="E67" s="28">
-        <f t="shared" ref="E67:K67" si="10">SUM(E63:E64)</f>
+        <f t="shared" ref="E67:K67" si="11">SUM(E63:E64)</f>
         <v>96521.620226524567</v>
       </c>
       <c r="F67" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>142825.670792836</v>
       </c>
       <c r="G67" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>324518.5572617976</v>
       </c>
       <c r="H67" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1556841.1804759463</v>
       </c>
       <c r="I67" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7840487.4849346383</v>
       </c>
       <c r="J67" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32608101.132622872</v>
       </c>
       <c r="K67" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32608101.132622872</v>
       </c>
     </row>
@@ -2448,31 +2448,31 @@
         <v>489.137775722654</v>
       </c>
       <c r="E71" s="28">
-        <f t="shared" ref="E71:K71" si="11">E46*E51</f>
+        <f t="shared" ref="E71:K71" si="12">E46*E51</f>
         <v>1467.486488427839</v>
       </c>
       <c r="F71" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4892.6376258250393</v>
       </c>
       <c r="G71" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39912.738271363414</v>
       </c>
       <c r="H71" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>358446.70387076744</v>
       </c>
       <c r="I71" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2281708.1034227852</v>
       </c>
       <c r="J71" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13177433.354234658</v>
       </c>
       <c r="K71" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19731661.681891855</v>
       </c>
     </row>
@@ -2489,19 +2489,19 @@
         <v>35020.100645538376</v>
       </c>
       <c r="H72" s="28">
-        <f t="shared" ref="H72" si="12">H71-G71</f>
+        <f t="shared" ref="H72" si="13">H71-G71</f>
         <v>318533.96559940401</v>
       </c>
       <c r="I72" s="28">
-        <f t="shared" ref="I72" si="13">I71-H71</f>
+        <f t="shared" ref="I72" si="14">I71-H71</f>
         <v>1923261.3995520177</v>
       </c>
       <c r="J72" s="28">
-        <f t="shared" ref="J72:K72" si="14">J71-I71</f>
+        <f t="shared" ref="J72:K72" si="15">J71-I71</f>
         <v>10895725.250811873</v>
       </c>
       <c r="K72" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6554228.3276571967</v>
       </c>
     </row>
@@ -2519,27 +2519,27 @@
         <v>62608.64809060983</v>
       </c>
       <c r="F75" s="28">
-        <f t="shared" ref="F75:K75" si="15">E67</f>
+        <f t="shared" ref="F75:K75" si="16">E67</f>
         <v>96521.620226524567</v>
       </c>
       <c r="G75" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>142825.670792836</v>
       </c>
       <c r="H75" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>324518.5572617976</v>
       </c>
       <c r="I75" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1556841.1804759463</v>
       </c>
       <c r="J75" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7840487.4849346383</v>
       </c>
       <c r="K75" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32608101.132622872</v>
       </c>
     </row>
@@ -2552,23 +2552,23 @@
         <v>0</v>
       </c>
       <c r="F76" s="28">
-        <f t="shared" ref="F76:J76" si="16">F72</f>
+        <f t="shared" ref="F76:J76" si="17">F72</f>
         <v>4892.6376258250393</v>
       </c>
       <c r="G76" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>35020.100645538376</v>
       </c>
       <c r="H76" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>318533.96559940401</v>
       </c>
       <c r="I76" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1923261.3995520177</v>
       </c>
       <c r="J76" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10895725.250811873</v>
       </c>
       <c r="K76" s="28">
@@ -2581,31 +2581,31 @@
         <v>75</v>
       </c>
       <c r="E77" s="28">
-        <f>E67 - SUM(E75:E76)</f>
+        <f t="shared" ref="E77:K77" si="18">E67 - SUM(E75:E76)</f>
         <v>33912.972135914737</v>
       </c>
       <c r="F77" s="28">
-        <f>F67 - SUM(F75:F76)</f>
+        <f t="shared" si="18"/>
         <v>41411.412940486392</v>
       </c>
       <c r="G77" s="28">
-        <f>G67 - SUM(G75:G76)</f>
+        <f t="shared" si="18"/>
         <v>146672.78582342324</v>
       </c>
       <c r="H77" s="28">
-        <f>H67 - SUM(H75:H76)</f>
+        <f t="shared" si="18"/>
         <v>913788.65761474473</v>
       </c>
       <c r="I77" s="28">
-        <f>I67 - SUM(I75:I76)</f>
+        <f t="shared" si="18"/>
         <v>4360384.9049066743</v>
       </c>
       <c r="J77" s="28">
-        <f>J67 - SUM(J75:J76)</f>
+        <f t="shared" si="18"/>
         <v>13871888.396876361</v>
       </c>
       <c r="K77" s="28">
-        <f>K67 - SUM(K75:K76)</f>
+        <f t="shared" si="18"/>
         <v>-6554228.3276571967</v>
       </c>
     </row>
@@ -2623,23 +2623,23 @@
         <v>3.5471108794518973E-2</v>
       </c>
       <c r="G80" s="42">
-        <f t="shared" ref="G80:K80" si="17">G76/(G75+G77)</f>
+        <f t="shared" ref="G80:K80" si="19">G76/(G75+G77)</f>
         <v>0.12096817736047137</v>
       </c>
       <c r="H80" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.2572333923057708</v>
       </c>
       <c r="I80" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.32502753347604352</v>
       </c>
       <c r="J80" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.50182095732505694</v>
       </c>
       <c r="K80" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.25156445556946178</v>
       </c>
     </row>
@@ -2648,27 +2648,27 @@
         <v>77</v>
       </c>
       <c r="F81" s="42">
-        <f t="shared" ref="F81:K81" si="18">F75/(F75+F77)</f>
+        <f t="shared" ref="F81:K81" si="20">F75/(F75+F77)</f>
         <v>0.69977160662924764</v>
       </c>
       <c r="G81" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.49335555174360268</v>
       </c>
       <c r="H81" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.26206627350883333</v>
       </c>
       <c r="I81" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.26310321052660562</v>
       </c>
       <c r="J81" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.3611068419049806</v>
       </c>
       <c r="K81" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.2515644555694618</v>
       </c>
     </row>
@@ -2681,23 +2681,23 @@
         <v>0.30022839337075236</v>
       </c>
       <c r="G82" s="42">
-        <f t="shared" ref="G82:K82" si="19">1-G81</f>
+        <f t="shared" ref="G82:K82" si="21">1-G81</f>
         <v>0.50664444825639732</v>
       </c>
       <c r="H82" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.73793372649116673</v>
       </c>
       <c r="I82" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.73689678947339443</v>
       </c>
       <c r="J82" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.63889315809501945</v>
       </c>
       <c r="K82" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.25156445556946183</v>
       </c>
     </row>
@@ -2710,19 +2710,19 @@
         <v>3423.7288920782958</v>
       </c>
       <c r="G83" s="28">
-        <f t="shared" ref="G83:J83" si="20">G81*G$76</f>
+        <f t="shared" ref="G83:J83" si="22">G81*G$76</f>
         <v>17277.36107609608</v>
       </c>
       <c r="H83" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>83477.009350626715</v>
       </c>
       <c r="I83" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>506016.24890402867</v>
       </c>
       <c r="J83" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3934520.935585028</v>
       </c>
     </row>
@@ -2735,19 +2735,19 @@
         <v>1468.9087337467438</v>
       </c>
       <c r="G84" s="28">
-        <f t="shared" ref="G84:J84" si="21">G82*G$76</f>
+        <f t="shared" ref="G84:J84" si="23">G82*G$76</f>
         <v>17742.739569442296</v>
       </c>
       <c r="H84" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>235056.95624877731</v>
       </c>
       <c r="I84" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1417245.150647989</v>
       </c>
       <c r="J84" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6961204.3152268454</v>
       </c>
     </row>
@@ -2796,11 +2796,11 @@
         <v>0.2572333923057708</v>
       </c>
       <c r="I88" s="42">
-        <f t="shared" ref="I88:J88" si="22">I80</f>
+        <f t="shared" ref="I88:J88" si="24">I80</f>
         <v>0.32502753347604352</v>
       </c>
       <c r="J88" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.50182095732505694</v>
       </c>
       <c r="K88" s="42"/>
@@ -2832,19 +2832,19 @@
         <v>0.64297679856115164</v>
       </c>
       <c r="H91" s="58">
-        <f t="shared" ref="H91:K91" si="23">100*H67/H87</f>
+        <f t="shared" ref="H91:K91" si="25">100*H67/H87</f>
         <v>0.8171955830531088</v>
       </c>
       <c r="I91" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.1115632270577405</v>
       </c>
       <c r="J91" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.6493500652042803</v>
       </c>
       <c r="K91" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.6493500652042803</v>
       </c>
     </row>
@@ -2858,15 +2858,15 @@
         <v>0.27095656465648932</v>
       </c>
       <c r="I92" s="42">
-        <f t="shared" ref="I92:K92" si="24">I91/H91-1</f>
+        <f t="shared" ref="I92:K92" si="26">I91/H91-1</f>
         <v>0.36021688089019066</v>
       </c>
       <c r="J92" s="42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.48381128941269336</v>
       </c>
       <c r="K92" s="42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -2878,31 +2878,6 @@
       <c r="J93" s="42"/>
       <c r="K93" s="42"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" s="28">
-        <f>G67+10*G72</f>
-        <v>674719.56371718133</v>
-      </c>
-      <c r="H94" s="28">
-        <f t="shared" ref="H94:K94" si="25">H67+10*H72</f>
-        <v>4742180.8364699865</v>
-      </c>
-      <c r="I94" s="28">
-        <f t="shared" si="25"/>
-        <v>27073101.480454817</v>
-      </c>
-      <c r="J94" s="28">
-        <f t="shared" si="25"/>
-        <v>141565353.64074162</v>
-      </c>
-      <c r="K94" s="28">
-        <f t="shared" si="25"/>
-        <v>98150384.409194842</v>
-      </c>
-    </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="45"/>
       <c r="G95" s="42"/>
@@ -2912,12 +2887,29 @@
       <c r="K95" s="42"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
+      <c r="A96" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G96" s="28">
+        <f>G67+10*G72</f>
+        <v>674719.56371718133</v>
+      </c>
+      <c r="H96" s="28">
+        <f>H67+10*H72</f>
+        <v>4742180.8364699865</v>
+      </c>
+      <c r="I96" s="28">
+        <f>I67+10*I72</f>
+        <v>27073101.480454817</v>
+      </c>
+      <c r="J96" s="28">
+        <f>J67+10*J72</f>
+        <v>141565353.64074162</v>
+      </c>
+      <c r="K96" s="28">
+        <f>K67+10*K72</f>
+        <v>98150384.409194842</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="45"/>
@@ -2976,27 +2968,27 @@
         <v>14085484.192398541</v>
       </c>
       <c r="F100" s="40">
-        <f t="shared" ref="F100:K100" si="26">100*F67/F99</f>
+        <f t="shared" ref="F100:K100" si="27">100*F67/F99</f>
         <v>20128687.787501641</v>
       </c>
       <c r="G100" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>40799556.661242433</v>
       </c>
       <c r="H100" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>155684118.04759464</v>
       </c>
       <c r="I100" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>591722608.53826213</v>
       </c>
       <c r="J100" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1638635827.0496693</v>
       </c>
       <c r="K100" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1309270025.8126857</v>
       </c>
     </row>
@@ -3013,23 +3005,23 @@
         <v>6043203.5951030999</v>
       </c>
       <c r="G102" s="40">
-        <f t="shared" ref="G102:K102" si="27">G100-F100</f>
+        <f t="shared" ref="G102:K102" si="28">G100-F100</f>
         <v>20670868.873740792</v>
       </c>
       <c r="H102" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>114884561.38635221</v>
       </c>
       <c r="I102" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>436038490.49066746</v>
       </c>
       <c r="J102" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1046913218.5114071</v>
       </c>
       <c r="K102" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-329365801.23698354</v>
       </c>
     </row>
@@ -3042,23 +3034,23 @@
         <v>41411.412940486392</v>
       </c>
       <c r="G103" s="28">
-        <f t="shared" ref="G103:K103" si="28">G77</f>
+        <f t="shared" ref="G103:K103" si="29">G77</f>
         <v>146672.78582342324</v>
       </c>
       <c r="H103" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>913788.65761474473</v>
       </c>
       <c r="I103" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4360384.9049066743</v>
       </c>
       <c r="J103" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>13871888.396876361</v>
       </c>
       <c r="K103" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-6554228.3276571967</v>
       </c>
     </row>
@@ -3071,23 +3063,23 @@
         <v>0.68525596215296614</v>
       </c>
       <c r="G104" s="50">
-        <f t="shared" ref="G104:K104" si="29">100*G103/G102</f>
+        <f t="shared" ref="G104:K104" si="30">100*G103/G102</f>
         <v>0.70956275093858678</v>
       </c>
       <c r="H104" s="50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.79539726364250962</v>
       </c>
       <c r="I104" s="50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="J104" s="50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.3250275334760437</v>
       </c>
       <c r="K104" s="50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.9899541188070502</v>
       </c>
     </row>
@@ -4612,10 +4604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17243D62-2A85-47D0-A472-66EAA00E9EA0}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,7 +4627,7 @@
     <col min="16" max="16" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="D1" s="43" t="s">
         <v>91</v>
       </c>
@@ -4670,7 +4662,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>98</v>
       </c>
@@ -4714,7 +4706,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>99</v>
       </c>
@@ -4759,7 +4751,7 @@
         <v>0.47222222222222221</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>105</v>
       </c>
@@ -4801,7 +4793,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D6" s="40">
         <f t="shared" si="1"/>
         <v>80000000</v>
@@ -4845,7 +4837,7 @@
         <v>0.75969717848024221</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>100</v>
       </c>
@@ -4895,7 +4887,7 @@
         <v>0.77435501299738141</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>99</v>
       </c>
@@ -4944,12 +4936,8 @@
         <f t="shared" si="3"/>
         <v>0.79022023831994215</v>
       </c>
-      <c r="Q8">
-        <f>G8/G7</f>
-        <v>1.0460621319279406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>106</v>
       </c>
@@ -4999,12 +4987,8 @@
         <f t="shared" si="3"/>
         <v>0.80652324912240303</v>
       </c>
-      <c r="Q9">
-        <f t="shared" ref="Q9:Q13" si="9">G9/G8</f>
-        <v>1.0418140857865443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="40">
         <f t="shared" si="1"/>
         <v>175000000</v>
@@ -5047,12 +5031,8 @@
         <f t="shared" si="3"/>
         <v>0.82290911876980077</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="9"/>
-        <v>1.0382882374622913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" s="40">
         <f t="shared" si="1"/>
         <v>200000000</v>
@@ -5095,12 +5075,8 @@
         <f t="shared" si="3"/>
         <v>0.85526650080429412</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="9"/>
-        <v>1.0353430512578219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>101</v>
       </c>
@@ -5149,12 +5125,8 @@
         <f t="shared" si="3"/>
         <v>0.88679049939775223</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="9"/>
-        <v>1.0645870840407681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>102</v>
       </c>
@@ -5191,7 +5163,7 @@
         <v>50000000</v>
       </c>
       <c r="M13" s="28">
-        <f>(E13-D13)/100*AVERAGE(G13:H13)</f>
+        <f t="shared" ref="M13:M30" si="9">(E13-D13)/100*AVERAGE(G13:H13)</f>
         <v>550362.51571194758</v>
       </c>
       <c r="N13" s="28"/>
@@ -5200,15 +5172,11 @@
         <v>3210734.0139052039</v>
       </c>
       <c r="P13" s="67">
-        <f>100*O13/E13</f>
+        <f t="shared" ref="P13:P30" si="11">100*O13/E13</f>
         <v>0.91735257540148685</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="9"/>
-        <v>1.0569372965548931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" s="40">
         <f t="shared" si="1"/>
         <v>350000000</v>
@@ -5239,7 +5207,7 @@
         <v>50000000</v>
       </c>
       <c r="M14" s="28">
-        <f>(E14-D14)/100*AVERAGE(G14:H14)</f>
+        <f t="shared" si="9"/>
         <v>577152.25119028846</v>
       </c>
       <c r="N14" s="28"/>
@@ -5248,11 +5216,11 @@
         <v>3787886.2650954924</v>
       </c>
       <c r="P14" s="67">
-        <f>100*O14/E14</f>
+        <f t="shared" si="11"/>
         <v>0.94697156627387313</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" s="40">
         <f t="shared" si="1"/>
         <v>400000000</v>
@@ -5283,7 +5251,7 @@
         <v>50000000</v>
       </c>
       <c r="M15" s="28">
-        <f>(E15-D15)/100*AVERAGE(G15:H15)</f>
+        <f t="shared" si="9"/>
         <v>602813.36052723695</v>
       </c>
       <c r="N15" s="28"/>
@@ -5292,11 +5260,11 @@
         <v>4390699.6256227288</v>
       </c>
       <c r="P15" s="67">
-        <f>100*O15/E15</f>
+        <f t="shared" si="11"/>
         <v>0.97571102791616204</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16" s="40">
         <f t="shared" si="1"/>
         <v>450000000</v>
@@ -5327,7 +5295,7 @@
         <v>50000000</v>
       </c>
       <c r="M16" s="28">
-        <f>(E16-D16)/100*AVERAGE(G16:H16)</f>
+        <f t="shared" si="9"/>
         <v>627523.54607012193</v>
       </c>
       <c r="N16" s="28"/>
@@ -5336,7 +5304,7 @@
         <v>5018223.171692851</v>
       </c>
       <c r="P16" s="67">
-        <f>100*O16/E16</f>
+        <f t="shared" si="11"/>
         <v>1.0036446343385703</v>
       </c>
     </row>
@@ -5378,7 +5346,7 @@
         <v>100000000</v>
       </c>
       <c r="M17" s="28">
-        <f>(E17-D17)/100*AVERAGE(G17:H17)</f>
+        <f t="shared" si="9"/>
         <v>1325694.9530776571</v>
       </c>
       <c r="N17" s="28"/>
@@ -5387,7 +5355,7 @@
         <v>6343918.1247705081</v>
       </c>
       <c r="P17" s="67">
-        <f>100*O17/E17</f>
+        <f t="shared" si="11"/>
         <v>1.0573196874617512</v>
       </c>
     </row>
@@ -5429,7 +5397,7 @@
         <v>100000000</v>
       </c>
       <c r="M18" s="28">
-        <f>(E18-D18)/100*AVERAGE(G18:H18)</f>
+        <f t="shared" si="9"/>
         <v>1416095.1417123773</v>
       </c>
       <c r="N18" s="28"/>
@@ -5438,7 +5406,7 @@
         <v>7760013.2664828859</v>
       </c>
       <c r="P18" s="67">
-        <f>100*O18/E18</f>
+        <f t="shared" si="11"/>
         <v>1.1085733237832693</v>
       </c>
     </row>
@@ -5473,7 +5441,7 @@
         <v>100000000</v>
       </c>
       <c r="M19" s="28">
-        <f>(E19-D19)/100*AVERAGE(G19:H19)</f>
+        <f t="shared" si="9"/>
         <v>1502264.4873300451</v>
       </c>
       <c r="N19" s="28"/>
@@ -5482,7 +5450,7 @@
         <v>9262277.7538129315</v>
       </c>
       <c r="P19" s="67">
-        <f>100*O19/E19</f>
+        <f t="shared" si="11"/>
         <v>1.1577847192266164</v>
       </c>
     </row>
@@ -5517,7 +5485,7 @@
         <v>100000000</v>
       </c>
       <c r="M20" s="28">
-        <f>(E20-D20)/100*AVERAGE(G20:H20)</f>
+        <f t="shared" si="9"/>
         <v>1585003.5106956684</v>
       </c>
       <c r="N20" s="28"/>
@@ -5526,7 +5494,7 @@
         <v>10847281.264508599</v>
       </c>
       <c r="P20" s="67">
-        <f>100*O20/E20</f>
+        <f t="shared" si="11"/>
         <v>1.2052534738342888</v>
       </c>
     </row>
@@ -5567,7 +5535,7 @@
         <v>100000000</v>
       </c>
       <c r="M21" s="28">
-        <f>(E21-D21)/100*AVERAGE(G21:H21)</f>
+        <f t="shared" si="9"/>
         <v>1664890.3747237851</v>
       </c>
       <c r="N21" s="28"/>
@@ -5576,7 +5544,7 @@
         <v>12512171.639232384</v>
       </c>
       <c r="P21" s="67">
-        <f>100*O21/E21</f>
+        <f t="shared" si="11"/>
         <v>1.2512171639232386</v>
       </c>
     </row>
@@ -5611,7 +5579,7 @@
         <v>250000000</v>
       </c>
       <c r="M22" s="28">
-        <f>(E22-D22)/100*AVERAGE(G22:H22)</f>
+        <f t="shared" si="9"/>
         <v>4494614.4653071864</v>
       </c>
       <c r="N22" s="28"/>
@@ -5620,7 +5588,7 @@
         <v>17006786.104539569</v>
       </c>
       <c r="P22" s="67">
-        <f>100*O22/E22</f>
+        <f t="shared" si="11"/>
         <v>1.3605428883631654</v>
       </c>
     </row>
@@ -5655,7 +5623,7 @@
         <v>250000000</v>
       </c>
       <c r="M23" s="28">
-        <f>(E23-D23)/100*AVERAGE(G23:H23)</f>
+        <f t="shared" si="9"/>
         <v>4950304.9436282367</v>
       </c>
       <c r="N23" s="28"/>
@@ -5664,7 +5632,7 @@
         <v>21957091.048167806</v>
       </c>
       <c r="P23" s="67">
-        <f>100*O23/E23</f>
+        <f t="shared" si="11"/>
         <v>1.4638060698778537</v>
       </c>
     </row>
@@ -5699,7 +5667,7 @@
         <v>250000000</v>
       </c>
       <c r="M24" s="28">
-        <f>(E24-D24)/100*AVERAGE(G24:H24)</f>
+        <f t="shared" si="9"/>
         <v>5383804.278373437</v>
       </c>
       <c r="N24" s="28"/>
@@ -5708,7 +5676,7 @@
         <v>27340895.326541245</v>
       </c>
       <c r="P24" s="67">
-        <f>100*O24/E24</f>
+        <f t="shared" si="11"/>
         <v>1.5623368758023568</v>
       </c>
     </row>
@@ -5743,7 +5711,7 @@
         <v>250000000</v>
       </c>
       <c r="M25" s="28">
-        <f>(E25-D25)/100*AVERAGE(G25:H25)</f>
+        <f t="shared" si="9"/>
         <v>5800189.7858274207</v>
       </c>
       <c r="N25" s="28"/>
@@ -5752,7 +5720,7 @@
         <v>33141085.112368666</v>
       </c>
       <c r="P25" s="67">
-        <f>100*O25/E25</f>
+        <f t="shared" si="11"/>
         <v>1.6570542556184333</v>
       </c>
     </row>
@@ -5787,7 +5755,7 @@
         <v>500000000</v>
       </c>
       <c r="M26" s="28">
-        <f>(E26-D26)/100*AVERAGE(G26:H26)</f>
+        <f t="shared" si="9"/>
         <v>12792080.003769821</v>
       </c>
       <c r="N26" s="28"/>
@@ -5796,7 +5764,7 @@
         <v>45933165.116138488</v>
       </c>
       <c r="P26" s="67">
-        <f>100*O26/E26</f>
+        <f t="shared" si="11"/>
         <v>1.8373266046455394</v>
       </c>
     </row>
@@ -5831,7 +5799,7 @@
         <v>500000000</v>
       </c>
       <c r="M27" s="28">
-        <f>(E27-D27)/100*AVERAGE(G27:H27)</f>
+        <f t="shared" si="9"/>
         <v>14322756.762293523</v>
       </c>
       <c r="N27" s="28"/>
@@ -5840,7 +5808,7 @@
         <v>60255921.878432013</v>
       </c>
       <c r="P27" s="67">
-        <f>100*O27/E27</f>
+        <f t="shared" si="11"/>
         <v>2.008530729281067</v>
       </c>
     </row>
@@ -5875,7 +5843,7 @@
         <v>500000000</v>
       </c>
       <c r="M28" s="28">
-        <f>(E28-D28)/100*AVERAGE(G28:H28)</f>
+        <f t="shared" si="9"/>
         <v>15792177.835791379</v>
       </c>
       <c r="N28" s="28"/>
@@ -5884,7 +5852,7 @@
         <v>76048099.714223385</v>
       </c>
       <c r="P28" s="67">
-        <f>100*O28/E28</f>
+        <f t="shared" si="11"/>
         <v>2.1728028489778111</v>
       </c>
     </row>
@@ -5919,7 +5887,7 @@
         <v>500000000</v>
       </c>
       <c r="M29" s="28">
-        <f>(E29-D29)/100*AVERAGE(G29:H29)</f>
+        <f t="shared" si="9"/>
         <v>17214962.510521915</v>
       </c>
       <c r="N29" s="28"/>
@@ -5928,7 +5896,7 @@
         <v>93263062.224745303</v>
       </c>
       <c r="P29" s="67">
-        <f>100*O29/E29</f>
+        <f t="shared" si="11"/>
         <v>2.331576555618633</v>
       </c>
     </row>
@@ -5963,7 +5931,7 @@
         <v>500000000</v>
       </c>
       <c r="M30" s="28">
-        <f>(E30-D30)/100*AVERAGE(G30:H30)</f>
+        <f t="shared" si="9"/>
         <v>18600881.545644801</v>
       </c>
       <c r="N30" s="28"/>
@@ -5972,7 +5940,7 @@
         <v>111863943.77039011</v>
       </c>
       <c r="P30" s="67">
-        <f>100*O30/E30</f>
+        <f t="shared" si="11"/>
         <v>2.48586541711978</v>
       </c>
     </row>
@@ -6218,7 +6186,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
-        <f>C24*D24/100</f>
+        <f t="shared" ref="B24:B37" si="0">C24*D24/100</f>
         <v>146672.78582342324</v>
       </c>
       <c r="C24" s="40">
@@ -6228,18 +6196,18 @@
         <v>0.70956275093858678</v>
       </c>
       <c r="E24" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C24/$C$16)*LN($C24/$C$16)))</f>
+        <f t="shared" ref="E24:E42" si="1">$D$16 * ($E$16^(LN(2*$C24/$C$16)*LN($C24/$C$16)))</f>
         <v>0.70956275093858678</v>
       </c>
       <c r="F24" s="58">
-        <f>$E24 * (LN($E$16) * (2 * LN($C24/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" ref="F24:F42" si="2">$E24 * (LN($E$16) * (2 * LN($C24/$C$16) + LN(2)) + 1)</f>
         <v>0.72553113517522794</v>
       </c>
       <c r="G24" s="55"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="28">
-        <f>C25*D25/100</f>
+        <f t="shared" si="0"/>
         <v>322886.59758110263</v>
       </c>
       <c r="C25" s="40">
@@ -6251,26 +6219,26 @@
         <v>0.73011140023966214</v>
       </c>
       <c r="E25" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C25/$C$16)*LN($C25/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.73549583869800472</v>
       </c>
       <c r="F25" s="58">
-        <f>$E25 * (LN($E$16) * (2 * LN($C25/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>0.78837086090514141</v>
       </c>
       <c r="H25" s="53"/>
       <c r="K25" s="58">
-        <f>$E25 * (LN($E$16) * (LN(2*$C25/$C$16) + LN($C25/$C$16)) + 1)</f>
+        <f t="shared" ref="K25:K42" si="3">$E25 * (LN($E$16) * (LN(2*$C25/$C$16) + LN($C25/$C$16)) + 1)</f>
         <v>0.78837086090514141</v>
       </c>
       <c r="L25" s="54">
-        <f>ABS(E25-D25)</f>
+        <f t="shared" ref="L25:L42" si="4">ABS(E25-D25)</f>
         <v>5.3844384583425775E-3</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="28">
-        <f>C26*D26/100</f>
+        <f t="shared" si="0"/>
         <v>509183.56196894968</v>
       </c>
       <c r="C26" s="40">
@@ -6280,26 +6248,26 @@
         <v>0.75125513008511524</v>
       </c>
       <c r="E26" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C26/$C$16)*LN($C26/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.76292344503290466</v>
       </c>
       <c r="F26" s="58">
-        <f>$E26 * (LN($E$16) * (2 * LN($C26/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>0.83892178967921305</v>
       </c>
       <c r="H26" s="53"/>
       <c r="K26" s="58">
-        <f>$E26 * (LN($E$16) * (LN(2*$C26/$C$16) + LN($C26/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>0.83892178967921305</v>
       </c>
       <c r="L26" s="54">
-        <f>ABS(E26-D26)</f>
+        <f t="shared" si="4"/>
         <v>1.1668314947789415E-2</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="28">
-        <f>C27*D27/100</f>
+        <f t="shared" si="0"/>
         <v>705999.90386356076</v>
       </c>
       <c r="C27" s="40">
@@ -6311,26 +6279,26 @@
         <v>0.77301117376600603</v>
       </c>
       <c r="E27" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C27/$C$16)*LN($C27/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.78820389429501714</v>
       </c>
       <c r="F27" s="58">
-        <f>$E27 * (LN($E$16) * (2 * LN($C27/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>0.88198585979840149</v>
       </c>
       <c r="H27" s="53"/>
       <c r="K27" s="58">
-        <f>$E27 * (LN($E$16) * (LN(2*$C27/$C$16) + LN($C27/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>0.88198585979840149</v>
       </c>
       <c r="L27" s="54">
-        <f>ABS(E27-D27)</f>
+        <f t="shared" si="4"/>
         <v>1.5192720529011106E-2</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="28">
-        <f>C28*D28/100</f>
+        <f t="shared" si="0"/>
         <v>913788.65761474473</v>
       </c>
       <c r="C28" s="40">
@@ -6340,26 +6308,26 @@
         <v>0.79539726364250962</v>
       </c>
       <c r="E28" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C28/$C$16)*LN($C28/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.8114028250688764</v>
       </c>
       <c r="F28" s="58">
-        <f>$E28 * (LN($E$16) * (2 * LN($C28/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>0.92003355401014775</v>
       </c>
       <c r="H28" s="53"/>
       <c r="K28" s="58">
-        <f>$E28 * (LN($E$16) * (LN(2*$C28/$C$16) + LN($C28/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>0.92003355401014775</v>
       </c>
       <c r="L28" s="54">
-        <f>ABS(E28-D28)</f>
+        <f t="shared" si="4"/>
         <v>1.6005561426366777E-2</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="28">
-        <f>C29*D29/100</f>
+        <f t="shared" si="0"/>
         <v>1268888.5353476962</v>
       </c>
       <c r="C29" s="40">
@@ -6369,26 +6337,26 @@
         <v>0.81848567149195028</v>
       </c>
       <c r="E29" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C29/$C$16)*LN($C29/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.84708591899579522</v>
       </c>
       <c r="F29" s="58">
-        <f>$E29 * (LN($E$16) * (2 * LN($C29/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>0.9769779751179074</v>
       </c>
       <c r="H29" s="53"/>
       <c r="K29" s="58">
-        <f>$E29 * (LN($E$16) * (LN(2*$C29/$C$16) + LN($C29/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>0.9769779751179074</v>
       </c>
       <c r="L29" s="54">
-        <f>ABS(E29-D29)</f>
+        <f t="shared" si="4"/>
         <v>2.8600247503844933E-2</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="28">
-        <f>C30*D30/100</f>
+        <f t="shared" si="0"/>
         <v>1453827.9394605586</v>
       </c>
       <c r="C30" s="40">
@@ -6398,26 +6366,26 @@
         <v>0.83027999725905688</v>
       </c>
       <c r="E30" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C30/$C$16)*LN($C30/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.86346449472005182</v>
       </c>
       <c r="F30" s="58">
-        <f>$E30 * (LN($E$16) * (2 * LN($C30/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.0026944725641884</v>
       </c>
       <c r="H30" s="53"/>
       <c r="K30" s="58">
-        <f>$E30 * (LN($E$16) * (LN(2*$C30/$C$16) + LN($C30/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.0026944725641884</v>
       </c>
       <c r="L30" s="54">
-        <f>ABS(E30-D30)</f>
+        <f t="shared" si="4"/>
         <v>3.3184497460994944E-2</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="28">
-        <f>C31*D31/100</f>
+        <f t="shared" si="0"/>
         <v>1548190.8820369381</v>
       </c>
       <c r="C31" s="40">
@@ -6429,26 +6397,26 @@
         <v>0.83624074120112857</v>
       </c>
       <c r="E31" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C31/$C$16)*LN($C31/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.87134711098192918</v>
       </c>
       <c r="F31" s="58">
-        <f>$E31 * (LN($E$16) * (2 * LN($C31/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.0150015495183058</v>
       </c>
       <c r="H31" s="53"/>
       <c r="K31" s="58">
-        <f>$E31 * (LN($E$16) * (LN(2*$C31/$C$16) + LN($C31/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.0150015495183058</v>
       </c>
       <c r="L31" s="54">
-        <f>ABS(E31-D31)</f>
+        <f t="shared" si="4"/>
         <v>3.5106369780800617E-2</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="28">
-        <f>C32*D32/100</f>
+        <f t="shared" si="0"/>
         <v>1643833.7934215465</v>
       </c>
       <c r="C32" s="40">
@@ -6458,26 +6426,26 @@
         <v>0.84224427850021233</v>
       </c>
       <c r="E32" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C32/$C$16)*LN($C32/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.87904334044840671</v>
       </c>
       <c r="F32" s="58">
-        <f>$E32 * (LN($E$16) * (2 * LN($C32/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.0269799087123972</v>
       </c>
       <c r="H32" s="53"/>
       <c r="K32" s="58">
-        <f>$E32 * (LN($E$16) * (LN(2*$C32/$C$16) + LN($C32/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.0269799087123972</v>
       </c>
       <c r="L32" s="54">
-        <f>ABS(E32-D32)</f>
+        <f t="shared" si="4"/>
         <v>3.6799061948194378E-2</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="28">
-        <f>C33*D33/100</f>
+        <f t="shared" si="0"/>
         <v>2456704.9180809627</v>
       </c>
       <c r="C33" s="40">
@@ -6487,26 +6455,26 @@
         <v>0.89185047157161357</v>
       </c>
       <c r="E33" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C33/$C$16)*LN($C33/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.93512102129201347</v>
       </c>
       <c r="F33" s="58">
-        <f>$E33 * (LN($E$16) * (2 * LN($C33/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.1134173396507354</v>
       </c>
       <c r="H33" s="53"/>
       <c r="K33" s="58">
-        <f>$E33 * (LN($E$16) * (LN(2*$C33/$C$16) + LN($C33/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.1134173396507354</v>
       </c>
       <c r="L33" s="54">
-        <f>ABS(E33-D33)</f>
+        <f t="shared" si="4"/>
         <v>4.3270549720399898E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="28">
-        <f>C34*D34/100</f>
+        <f t="shared" si="0"/>
         <v>3359626.0645255633</v>
       </c>
       <c r="C34" s="40">
@@ -6516,26 +6484,26 @@
         <v>0.94437835191813535</v>
       </c>
       <c r="E34" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C34/$C$16)*LN($C34/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.98394384357182452</v>
       </c>
       <c r="F34" s="58">
-        <f>$E34 * (LN($E$16) * (2 * LN($C34/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.1878913011847565</v>
       </c>
       <c r="H34" s="53"/>
       <c r="K34" s="58">
-        <f>$E34 * (LN($E$16) * (LN(2*$C34/$C$16) + LN($C34/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.1878913011847565</v>
       </c>
       <c r="L34" s="54">
-        <f>ABS(E34-D34)</f>
+        <f t="shared" si="4"/>
         <v>3.9565491653689167E-2</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="28">
-        <f>C35*D35/100</f>
+        <f t="shared" si="0"/>
         <v>3600326.3216940532</v>
       </c>
       <c r="C35" s="40">
@@ -6547,26 +6515,26 @@
         <v>0.95798678309521712</v>
       </c>
       <c r="E35" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C35/$C$16)*LN($C35/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>0.99529932023520817</v>
       </c>
       <c r="F35" s="58">
-        <f>$E35 * (LN($E$16) * (2 * LN($C35/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.2051478357354826</v>
       </c>
       <c r="H35" s="53"/>
       <c r="K35" s="58">
-        <f>$E35 * (LN($E$16) * (LN(2*$C35/$C$16) + LN($C35/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.2051478357354826</v>
       </c>
       <c r="L35" s="54">
-        <f>ABS(E35-D35)</f>
+        <f t="shared" si="4"/>
         <v>3.7312537139991053E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="28">
-        <f>C36*D36/100</f>
+        <f t="shared" si="0"/>
         <v>3847265.9155155737</v>
       </c>
       <c r="C36" s="40">
@@ -6576,26 +6544,26 @@
         <v>0.97179131088836934</v>
       </c>
       <c r="E36" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C36/$C$16)*LN($C36/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>1.0063665436126572</v>
       </c>
       <c r="F36" s="58">
-        <f>$E36 * (LN($E$16) * (2 * LN($C36/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.2219485892432931</v>
       </c>
       <c r="H36" s="53"/>
       <c r="K36" s="58">
-        <f>$E36 * (LN($E$16) * (LN(2*$C36/$C$16) + LN($C36/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.2219485892432931</v>
       </c>
       <c r="L36" s="54">
-        <f>ABS(E36-D36)</f>
+        <f t="shared" si="4"/>
         <v>3.4575232724287863E-2</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="28">
-        <f>C37*D37/100</f>
+        <f t="shared" si="0"/>
         <v>4360384.9049066743</v>
       </c>
       <c r="C37" s="40">
@@ -6605,20 +6573,20 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="E37" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C37/$C$16)*LN($C37/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>1.0277162937034079</v>
       </c>
       <c r="F37" s="58">
-        <f>$E37 * (LN($E$16) * (2 * LN($C37/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.2543172524363009</v>
       </c>
       <c r="H37" s="53"/>
       <c r="K37" s="58">
-        <f>$E37 * (LN($E$16) * (LN(2*$C37/$C$16) + LN($C37/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.2543172524363009</v>
       </c>
       <c r="L37" s="54">
-        <f>ABS(E37-D37)</f>
+        <f t="shared" si="4"/>
         <v>2.7716293703408001E-2</v>
       </c>
     </row>
@@ -6630,20 +6598,20 @@
         <v>1.0728925403029621</v>
       </c>
       <c r="E38" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C38/$C$16)*LN($C38/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>1.1012832873697151</v>
       </c>
       <c r="F38" s="58">
-        <f>$E38 * (LN($E$16) * (2 * LN($C38/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.3655786217003747</v>
       </c>
       <c r="H38" s="53"/>
       <c r="K38" s="58">
-        <f>$E38 * (LN($E$16) * (LN(2*$C38/$C$16) + LN($C38/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.3655786217003747</v>
       </c>
       <c r="L38" s="54">
-        <f>ABS(E38-D38)</f>
+        <f t="shared" si="4"/>
         <v>2.8390747066753041E-2</v>
       </c>
     </row>
@@ -6655,20 +6623,20 @@
         <v>1.1510984030377436</v>
       </c>
       <c r="E39" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C39/$C$16)*LN($C39/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>1.1659675965234526</v>
       </c>
       <c r="F39" s="58">
-        <f>$E39 * (LN($E$16) * (2 * LN($C39/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.4632476449937888</v>
       </c>
       <c r="H39" s="53"/>
       <c r="K39" s="58">
-        <f>$E39 * (LN($E$16) * (LN(2*$C39/$C$16) + LN($C39/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.4632476449937886</v>
       </c>
       <c r="L39" s="54">
-        <f>ABS(E39-D39)</f>
+        <f t="shared" si="4"/>
         <v>1.4869193485709031E-2</v>
       </c>
     </row>
@@ -6680,20 +6648,20 @@
         <v>1.192313782677396</v>
       </c>
       <c r="E40" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C40/$C$16)*LN($C40/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>1.1958465879442721</v>
       </c>
       <c r="F40" s="58">
-        <f>$E40 * (LN($E$16) * (2 * LN($C40/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.5083559803279876</v>
       </c>
       <c r="H40" s="53"/>
       <c r="K40" s="58">
-        <f>$E40 * (LN($E$16) * (LN(2*$C40/$C$16) + LN($C40/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.5083559803279876</v>
       </c>
       <c r="L40" s="54">
-        <f>ABS(E40-D40)</f>
+        <f t="shared" si="4"/>
         <v>3.53280526687616E-3</v>
       </c>
     </row>
@@ -6705,20 +6673,20 @@
         <v>1.2350048897738479</v>
       </c>
       <c r="E41" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C41/$C$16)*LN($C41/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>1.2243865593973196</v>
       </c>
       <c r="F41" s="58">
-        <f>$E41 * (LN($E$16) * (2 * LN($C41/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.5514510704086422</v>
       </c>
       <c r="H41" s="53"/>
       <c r="K41" s="58">
-        <f>$E41 * (LN($E$16) * (LN(2*$C41/$C$16) + LN($C41/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.5514510704086422</v>
       </c>
       <c r="L41" s="54">
-        <f>ABS(E41-D41)</f>
+        <f t="shared" si="4"/>
         <v>1.0618330376528373E-2</v>
       </c>
     </row>
@@ -6730,20 +6698,20 @@
         <v>1.3250275334760437</v>
       </c>
       <c r="E42" s="58">
-        <f>$D$16 * ($E$16^(LN(2*$C42/$C$16)*LN($C42/$C$16)))</f>
+        <f t="shared" si="1"/>
         <v>1.2780901847924515</v>
       </c>
       <c r="F42" s="58">
-        <f>$E42 * (LN($E$16) * (2 * LN($C42/$C$16) + LN(2)) + 1)</f>
+        <f t="shared" si="2"/>
         <v>1.632586296726023</v>
       </c>
       <c r="H42" s="53"/>
       <c r="K42" s="58">
-        <f>$E42 * (LN($E$16) * (LN(2*$C42/$C$16) + LN($C42/$C$16)) + 1)</f>
+        <f t="shared" si="3"/>
         <v>1.632586296726023</v>
       </c>
       <c r="L42" s="54">
-        <f>ABS(E42-D42)</f>
+        <f t="shared" si="4"/>
         <v>4.6937348683592228E-2</v>
       </c>
     </row>
